--- a/protected_zips/passwords.xlsx
+++ b/protected_zips/passwords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smondesi\Downloads\protected_zips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E31E03E-9FA1-459C-A266-A270C4EDA210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA71960-5DED-4A40-B6F5-28C252E2CD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -540,10 +540,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.75">
@@ -584,10 +584,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/protected_zips/passwords.xlsx
+++ b/protected_zips/passwords.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smondesi\Downloads\protected_zips\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sean\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA71960-5DED-4A40-B6F5-28C252E2CD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9485AAA3-877B-4A86-8F6A-38BDC09A7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>File</t>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>spaceballs</t>
+  </si>
+  <si>
+    <t>common_passwords1.txt</t>
+  </si>
+  <si>
+    <t>common_passwords2.txt</t>
+  </si>
+  <si>
+    <t>common_passwords3.txt</t>
+  </si>
+  <si>
+    <t>common_password file</t>
   </si>
 </sst>
 </file>
@@ -119,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,39 +177,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -215,10 +195,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -501,41 +481,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.40625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" thickBot="1" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -545,8 +533,11 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -556,8 +547,11 @@
       <c r="C4" s="1">
         <v>528491</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,8 +561,11 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -578,8 +575,11 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -588,6 +588,9 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
